--- a/数据整理/stocks/港股/06821-凯莱英.xlsx
+++ b/数据整理/stocks/港股/06821-凯莱英.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,17 +557,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -576,13 +597,141 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>014214</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>光大保德信核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014215</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>光大保德信核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.09</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/06821-凯莱英.xlsx
+++ b/数据整理/stocks/港股/06821-凯莱英.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,91 +452,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>470888</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富香港优势精选混合 (QDII)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>67.74</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.67</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0920</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.09</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -678,64 +652,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>470888</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富香港优势精选混合 (QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>67.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.09</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/06821-凯莱英.xlsx
+++ b/数据整理/stocks/港股/06821-凯莱英.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -515,6 +532,290 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>013357</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大摩沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014114</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发沪港深医药混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013356</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大摩沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014115</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发沪港深医药混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014214</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>光大保德信核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014215</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光大保德信核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -646,7 +947,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/06821-凯莱英.xlsx
+++ b/数据整理/stocks/港股/06821-凯莱英.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.22</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -532,6 +549,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>013357</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大摩沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013356</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大摩沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -815,7 +964,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -947,7 +1096,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
